--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E0956-DEC7-445C-8EDE-1AE97DD1625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4677AE-07A2-46E5-9F12-7B722AA22F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,19 +155,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:P10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="常规">
-  <autoFilter ref="A1:P10" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:P5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="常规">
+  <autoFilter ref="A1:P5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="15" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="14" dataCellStyle="常规"/>
@@ -681,38 +681,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>26</v>
@@ -762,9 +762,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -782,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>15</v>
@@ -812,15 +812,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -832,16 +832,16 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -862,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -882,16 +882,16 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -912,15 +912,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -935,13 +935,13 @@
         <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -959,256 +959,6 @@
         <v>19</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4677AE-07A2-46E5-9F12-7B722AA22F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B43A5F-C6F5-48EF-A99F-814E4B036413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>CSI300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +236,25 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -394,25 +424,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:P5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="常规">
-  <autoFilter ref="A1:P5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="15" dataCellStyle="常规"/>
-    <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="14" dataCellStyle="常规"/>
-    <tableColumn id="5" xr3:uid="{D2E9FE7A-7688-4F5B-8571-57FA7F950FAC}" name="mkt_type" dataDxfId="13" dataCellStyle="常规"/>
-    <tableColumn id="7" xr3:uid="{21D2BC5B-1724-4F5A-B035-96075B1C2F09}" name="beta_kind" dataDxfId="12" dataCellStyle="常规"/>
-    <tableColumn id="15" xr3:uid="{F7C69614-6013-4F27-B374-3234DC1FBECE}" name="beta_suffix" dataDxfId="11" dataCellStyle="常规"/>
-    <tableColumn id="8" xr3:uid="{F2F7816F-F2E3-423F-878B-C3AAC4FA1D59}" name="beta_args" dataDxfId="10" dataCellStyle="常规"/>
-    <tableColumn id="2" xr3:uid="{ADC22F73-F264-4A15-91B8-8277EEDB39C1}" name="H0" dataDxfId="9" dataCellStyle="常规"/>
-    <tableColumn id="3" xr3:uid="{31851A3A-F877-49EE-AFF8-6A2B1CEA161C}" name="H1" dataDxfId="8" dataCellStyle="常规"/>
-    <tableColumn id="4" xr3:uid="{D159B152-EF17-4A53-A2B7-966C2E98AF96}" name="B" dataDxfId="7" dataCellStyle="常规"/>
-    <tableColumn id="16" xr3:uid="{C38C3F2C-D0BF-4652-9FCE-197C4FA6B9F4}" name="E" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{301040EA-8B39-49A6-93EE-2BDCD97E3D9B}" name="D" dataDxfId="5" dataCellStyle="常规"/>
-    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="4" dataCellStyle="常规"/>
-    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="3" dataCellStyle="常规"/>
-    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="2" dataCellStyle="常规"/>
-    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="1" dataCellStyle="常规"/>
-    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="0" dataCellStyle="常规"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
+    <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
+    <tableColumn id="5" xr3:uid="{D2E9FE7A-7688-4F5B-8571-57FA7F950FAC}" name="mkt_type" dataDxfId="15" dataCellStyle="常规"/>
+    <tableColumn id="7" xr3:uid="{21D2BC5B-1724-4F5A-B035-96075B1C2F09}" name="beta_kind" dataDxfId="14" dataCellStyle="常规"/>
+    <tableColumn id="15" xr3:uid="{F7C69614-6013-4F27-B374-3234DC1FBECE}" name="beta_suffix" dataDxfId="13" dataCellStyle="常规"/>
+    <tableColumn id="8" xr3:uid="{F2F7816F-F2E3-423F-878B-C3AAC4FA1D59}" name="beta_args" dataDxfId="12" dataCellStyle="常规"/>
+    <tableColumn id="2" xr3:uid="{ADC22F73-F264-4A15-91B8-8277EEDB39C1}" name="H0" dataDxfId="11" dataCellStyle="常规"/>
+    <tableColumn id="3" xr3:uid="{31851A3A-F877-49EE-AFF8-6A2B1CEA161C}" name="H1" dataDxfId="10" dataCellStyle="常规"/>
+    <tableColumn id="4" xr3:uid="{D159B152-EF17-4A53-A2B7-966C2E98AF96}" name="B" dataDxfId="9" dataCellStyle="常规"/>
+    <tableColumn id="16" xr3:uid="{C38C3F2C-D0BF-4652-9FCE-197C4FA6B9F4}" name="E" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{301040EA-8B39-49A6-93EE-2BDCD97E3D9B}" name="D" dataDxfId="7" dataCellStyle="常规"/>
+    <tableColumn id="17" xr3:uid="{530D8216-A88C-4A03-8B8B-6CDB5325F543}" name="G" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{E7F1B0A8-266A-461F-8997-857270CD3CEF}" name="S" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="6" dataCellStyle="常规"/>
+    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="5" dataCellStyle="常规"/>
+    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="4" dataCellStyle="常规"/>
+    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="3" dataCellStyle="常规"/>
+    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="2" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,38 +713,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -747,22 +781,28 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -797,22 +837,28 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -847,22 +893,28 @@
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -897,22 +949,28 @@
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -947,18 +1005,24 @@
         <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B43A5F-C6F5-48EF-A99F-814E4B036413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1785065-46B5-4777-AFDE-F6216AC52284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="38">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,7 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1</t>
+    <t>2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R13" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -438,13 +438,13 @@
     <tableColumn id="4" xr3:uid="{D159B152-EF17-4A53-A2B7-966C2E98AF96}" name="B" dataDxfId="9" dataCellStyle="常规"/>
     <tableColumn id="16" xr3:uid="{C38C3F2C-D0BF-4652-9FCE-197C4FA6B9F4}" name="E" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{301040EA-8B39-49A6-93EE-2BDCD97E3D9B}" name="D" dataDxfId="7" dataCellStyle="常规"/>
-    <tableColumn id="17" xr3:uid="{530D8216-A88C-4A03-8B8B-6CDB5325F543}" name="G" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{E7F1B0A8-266A-461F-8997-857270CD3CEF}" name="S" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="6" dataCellStyle="常规"/>
-    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="5" dataCellStyle="常规"/>
-    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="4" dataCellStyle="常规"/>
-    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="3" dataCellStyle="常规"/>
-    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="2" dataCellStyle="常规"/>
+    <tableColumn id="17" xr3:uid="{530D8216-A88C-4A03-8B8B-6CDB5325F543}" name="G" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{E7F1B0A8-266A-461F-8997-857270CD3CEF}" name="S" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="4" dataCellStyle="常规"/>
+    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="3" dataCellStyle="常规"/>
+    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="2" dataCellStyle="常规"/>
+    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="1" dataCellStyle="常规"/>
+    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="0" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -726,11 +726,11 @@
     <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1023,6 +1023,454 @@
         <v>19</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1785065-46B5-4777-AFDE-F6216AC52284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69280B93-D702-4981-BE98-8804F03CAB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,12 +716,13 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -804,7 +805,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -860,7 +861,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -916,7 +917,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -972,7 +973,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69280B93-D702-4981-BE98-8804F03CAB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CDE88-F73B-48B8-8410-CE4175E4DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="39">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APM(zscore)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R13" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R17" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -713,31 +717,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.109375" style="1" bestFit="1" customWidth="1"/>
@@ -805,7 +808,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -861,13 +864,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -888,13 +891,13 @@
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>16</v>
@@ -917,7 +920,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -941,7 +944,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>32</v>
@@ -950,7 +953,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>16</v>
@@ -973,7 +976,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>33</v>
@@ -1029,13 +1032,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -1056,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -1085,7 +1088,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -1118,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>16</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1174,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>16</v>
@@ -1197,13 +1200,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1224,7 +1227,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1277,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>32</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1333,7 +1336,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>33</v>
@@ -1342,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>16</v>
@@ -1365,13 +1368,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -1392,13 +1395,13 @@
         <v>29</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>16</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1472,6 +1475,230 @@
         <v>19</v>
       </c>
       <c r="R13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CDE88-F73B-48B8-8410-CE4175E4DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D7C71-0124-4BA5-9556-E5BBE93C19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D7C71-0124-4BA5-9556-E5BBE93C19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B8F23-8F35-44A1-8DBE-140A2424B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,43 +127,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_apm</t>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>FRtn5D(0.0,3.0)_zscore_SD(0.0225)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_apm_zscore_SD(0.0225)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,23 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APM(zscore)</t>
+    <t>1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R17" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R7" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -717,20 +720,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -770,25 +773,25 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -808,7 +811,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -826,22 +829,22 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
@@ -864,10 +867,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -882,22 +885,22 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>16</v>
@@ -920,10 +923,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -938,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>16</v>
@@ -976,13 +979,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -994,22 +997,22 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>16</v>
@@ -1032,13 +1035,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -1050,22 +1053,22 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>16</v>
@@ -1088,13 +1091,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -1106,22 +1109,22 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>16</v>
@@ -1139,566 +1142,6 @@
         <v>19</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B8F23-8F35-44A1-8DBE-140A2424B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B4DBE-BB26-4E48-A42E-A388E9F977A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R7" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -720,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1033,118 +1029,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B4DBE-BB26-4E48-A42E-A388E9F977A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD19D11-E750-40D2-8DEE-A58F5C1FDB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="3000" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRtn5D(0.0,3.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Barra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,38 +147,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRtn5D(0.0,3.0)_zscore_SD(0.0225)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_apm_zscore_SD(0.0225)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor_apm</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRtn5D(0.0,3.0)_zscore_SD(0.0225)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor_apm_zscore_SD(0.0225)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +708,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -763,31 +752,31 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -807,226 +796,226 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD19D11-E750-40D2-8DEE-A58F5C1FDB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077CA87-42B4-4A11-961F-251DF08F91A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="3000" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="40">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,15 +167,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CSI300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,8 +432,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R5" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R21" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -705,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C12" sqref="C12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -829,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -858,7 +874,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -885,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -914,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -938,10 +954,10 @@
         <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -970,7 +986,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -994,10 +1010,10 @@
         <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>14</v>
@@ -1015,6 +1031,902 @@
         <v>17</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077CA87-42B4-4A11-961F-251DF08F91A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256121A6-005C-4921-819C-BB8AB15EDEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="3000" windowWidth="20112" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="41">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>CSI300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_apm_reg1d(wl=60,i=T)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R21" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R31" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -721,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -812,7 +816,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -868,7 +872,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -924,7 +928,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -980,7 +984,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1036,7 +1040,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -1092,7 +1096,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1148,7 +1152,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1204,7 +1208,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -1260,7 +1264,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
@@ -1316,7 +1320,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -1372,7 +1376,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1428,7 +1432,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -1484,7 +1488,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -1540,7 +1544,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -1596,7 +1600,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -1652,7 +1656,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
@@ -1708,7 +1712,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1764,7 +1768,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1820,7 +1824,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1876,7 +1880,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1927,6 +1931,566 @@
         <v>17</v>
       </c>
       <c r="R21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256121A6-005C-4921-819C-BB8AB15EDEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B2ED7-8D24-4633-8FD1-13E6EF684995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1403,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>13</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -1459,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>13</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -1515,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>13</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -1571,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>13</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -1627,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>13</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
@@ -1683,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>13</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1739,7 +1739,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>13</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1795,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>13</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1851,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1907,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>13</v>
@@ -2243,7 +2243,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>13</v>
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>13</v>
@@ -2355,7 +2355,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>13</v>
@@ -2411,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>13</v>
@@ -2467,7 +2467,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>13</v>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B2ED7-8D24-4633-8FD1-13E6EF684995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF93630D-35CE-4532-A648-822161CB9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="1056" windowWidth="20112" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="42">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,9 @@
   <si>
     <t>factor_apm_reg1d(wl=60,i=T)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_apm_reg1d(wl=5,i=T)</t>
   </si>
 </sst>
 </file>
@@ -436,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R31" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R41" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R41" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -725,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,7 +819,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -928,7 +931,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -1488,7 +1491,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>40</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -2160,7 +2163,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -2491,6 +2494,566 @@
         <v>17</v>
       </c>
       <c r="R31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF93630D-35CE-4532-A648-822161CB9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE648AEB-DACA-498A-B16F-2BEAC2CFBE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1056" windowWidth="20112" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="45">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>factor_apm_reg1d(wl=5,i=T)</t>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R41" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R41" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R47" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R47" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2231,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -2275,7 +2287,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
@@ -2331,7 +2343,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>40</v>
@@ -2387,7 +2399,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>40</v>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -3054,6 +3066,342 @@
         <v>17</v>
       </c>
       <c r="R41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target_v2.xlsx
+++ b/BarraPCA/optimize_target_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE648AEB-DACA-498A-B16F-2BEAC2CFBE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBB14B-4ACB-4C2F-B910-666531819F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="47">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R47" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
-  <autoFilter ref="A1:R47" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:R51" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="常规">
+  <autoFilter ref="A1:R51" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="17" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="16" dataCellStyle="常规"/>
@@ -740,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3191,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
@@ -3239,7 +3247,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>41</v>
@@ -3295,7 +3303,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
@@ -3351,7 +3359,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>41</v>
@@ -3402,6 +3410,230 @@
         <v>17</v>
       </c>
       <c r="R47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="2" t="s">
         <v>18</v>
       </c>
     </row>
